--- a/assets/（太空猎犬（space hound）坐标大都会）2.9/设计文档/Space Hound技能设计.xlsx
+++ b/assets/（太空猎犬（space hound）坐标大都会）2.9/设计文档/Space Hound技能设计.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="333">
   <si>
     <t>神圣魔法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1288,10 +1288,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>匕首</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>吊挂（带摆动）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1304,51 +1300,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>燃烧Burn：生命值持续损耗，翻滚可加快状态消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂crazy：移动变快，攻击增加，生命值损耗，理智值损耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中毒poison：生命值持续损耗，San值持续损耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚弱weak：移动变慢，伤害降低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>限制limit：无法使用道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻痹palsy：无法移动，使用武器变慢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>武器类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>刺剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武装剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>砍刀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武士刀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鞭（链式武器）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>燃烧Burn：生命值持续损耗，翻滚可加快状态消失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>疯狂crazy：移动变快，攻击增加，生命值损耗，理智值损耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中毒poison：生命值持续损耗，San值持续损耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚弱weak：移动变慢，伤害降低</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>限制limit：无法使用道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>麻痹palsy：无法移动，使用武器变慢</t>
+    <t>近战武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪械武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔导器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投掷武器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3796,13 +3792,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>318</v>
+      </c>
+      <c r="B16" t="s">
+        <v>320</v>
+      </c>
+      <c r="D16" t="s">
         <v>319</v>
-      </c>
-      <c r="B16" t="s">
-        <v>321</v>
-      </c>
-      <c r="D16" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -4045,10 +4041,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X30"/>
+  <dimension ref="A1:X34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4320,56 +4316,38 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="T21" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="O22" t="s">
+      <c r="T22" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="T23" t="s">
         <v>322</v>
       </c>
-      <c r="T22" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="O23" t="s">
-        <v>318</v>
-      </c>
-      <c r="T23" t="s">
-        <v>329</v>
-      </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="O24" t="s">
+      <c r="T24" t="s">
         <v>323</v>
       </c>
-      <c r="T24" t="s">
-        <v>330</v>
-      </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="O25" t="s">
+      <c r="T25" t="s">
         <v>324</v>
       </c>
-      <c r="T25" t="s">
-        <v>331</v>
-      </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="O26" t="s">
+      <c r="T26" t="s">
         <v>325</v>
-      </c>
-      <c r="T26" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>184</v>
       </c>
-      <c r="O27" t="s">
-        <v>327</v>
-      </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -4384,6 +4362,9 @@
       <c r="D29" t="s">
         <v>2</v>
       </c>
+      <c r="L29" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -4395,8 +4376,28 @@
       <c r="D30" t="s">
         <v>4</v>
       </c>
-      <c r="O30" t="s">
-        <v>326</v>
+      <c r="L30" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L31" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L32" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="33" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L33" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="34" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L34" t="s">
+        <v>331</v>
       </c>
     </row>
   </sheetData>

--- a/assets/（太空猎犬（space hound）坐标大都会）2.9/设计文档/Space Hound技能设计.xlsx
+++ b/assets/（太空猎犬（space hound）坐标大都会）2.9/设计文档/Space Hound技能设计.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="337">
   <si>
     <t>神圣魔法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1256,10 +1256,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Army Saber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>冷却时间1（动画结束后）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1345,6 +1341,26 @@
   </si>
   <si>
     <t>投掷武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老左轮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SmallKnife</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肋剑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3693,13 +3709,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>311</v>
+      </c>
+      <c r="B7" t="s">
         <v>312</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>313</v>
-      </c>
-      <c r="D7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3726,13 +3742,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>314</v>
+      </c>
+      <c r="B10" t="s">
         <v>315</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>316</v>
-      </c>
-      <c r="D10" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3792,13 +3808,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>317</v>
+      </c>
+      <c r="B16" t="s">
+        <v>319</v>
+      </c>
+      <c r="D16" t="s">
         <v>318</v>
-      </c>
-      <c r="B16" t="s">
-        <v>320</v>
-      </c>
-      <c r="D16" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -4044,7 +4060,7 @@
   <dimension ref="A1:X34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4119,7 +4135,7 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
@@ -4160,10 +4176,10 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>309</v>
+        <v>336</v>
       </c>
       <c r="B7" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="C7">
         <v>50000</v>
@@ -4201,7 +4217,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="E8">
         <v>15</v>
@@ -4221,27 +4237,27 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>213</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>306</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="O13">
         <f>+U73</f>
@@ -4249,6 +4265,9 @@
       </c>
     </row>
     <row r="14" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>307</v>
+      </c>
       <c r="T14" s="3"/>
       <c r="U14" s="4"/>
       <c r="V14" s="4" t="s">
@@ -4271,6 +4290,12 @@
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>332</v>
+      </c>
+      <c r="B16" t="s">
+        <v>333</v>
+      </c>
       <c r="T16" s="6"/>
       <c r="U16" s="11" t="s">
         <v>251</v>
@@ -4282,6 +4307,12 @@
       <c r="X16" s="10"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>334</v>
+      </c>
+      <c r="B17">
+        <v>51000</v>
+      </c>
       <c r="T17" s="6"/>
       <c r="U17" s="11" t="s">
         <v>253</v>
@@ -4316,32 +4347,32 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="T21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="T22" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="T23" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="T24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="T25" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="T26" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
@@ -4363,7 +4394,7 @@
         <v>2</v>
       </c>
       <c r="L29" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
@@ -4377,27 +4408,27 @@
         <v>4</v>
       </c>
       <c r="L30" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="L31" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="L32" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="33" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L33" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="34" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L34" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
